--- a/Configuration/LoginData.xlsx
+++ b/Configuration/LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asifn\eclipse-workspace\inetBanking\src\test\java\com\inetBanking\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASIF\eclipse-workspace\iNetBankingV1\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7E7C3-C147-4D45-BFA9-69FA64D46DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073BB510-0F02-40B8-BC72-37C4544C0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{0955982B-5605-4D51-AAD5-EBD24D09D213}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{0955982B-5605-4D51-AAD5-EBD24D09D213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,34 +43,34 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr404181</t>
-  </si>
-  <si>
-    <t>YsUteby</t>
-  </si>
-  <si>
-    <t>mngr404183</t>
-  </si>
-  <si>
-    <t>nEjamEt</t>
-  </si>
-  <si>
-    <t>habijabi</t>
-  </si>
-  <si>
-    <t>jabihabi</t>
-  </si>
-  <si>
-    <t>lalala</t>
-  </si>
-  <si>
-    <t>kalalaa</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>manual</t>
+    <t>mngr415893</t>
+  </si>
+  <si>
+    <t>zEzUrEh</t>
+  </si>
+  <si>
+    <t>mngr415895</t>
+  </si>
+  <si>
+    <t>ytagAdY</t>
+  </si>
+  <si>
+    <t>mngr415896</t>
+  </si>
+  <si>
+    <t>agyjYzE</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>rhj30jf</t>
+  </si>
+  <si>
+    <t>random2</t>
+  </si>
+  <si>
+    <t>fe29812</t>
   </si>
 </sst>
 </file>
@@ -469,12 +469,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -523,10 +523,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="hello@randomemail.com" xr:uid="{74594A71-6EE0-42C1-94E7-B6FBD6F62F08}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>